--- a/pw3/pw3-Приведение таблиц(edited).xlsx
+++ b/pw3/pw3-Приведение таблиц(edited).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="description" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">description!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">description!$A$1:$D$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="214">
   <si>
     <t>Библиотечный фонд</t>
   </si>
@@ -554,9 +554,6 @@
     <t>id (идентификатор читателя)</t>
   </si>
   <si>
-    <t>CHECK (11 цифр)</t>
-  </si>
-  <si>
     <t>pasport_id (паспорт)</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>FK для связи с sertificates</t>
   </si>
   <si>
-    <t>CHECK (только буквенные значения)</t>
-  </si>
-  <si>
     <t>pasports (Паспорта)</t>
   </si>
   <si>
@@ -620,9 +614,6 @@
     <t>date(дата бронирования)</t>
   </si>
   <si>
-    <t>FK для связи с repository - издание, not null</t>
-  </si>
-  <si>
     <t>CHECK ( &gt;= 0), null</t>
   </si>
   <si>
@@ -666,6 +657,15 @@
   </si>
   <si>
     <t>Карточка читателя</t>
+  </si>
+  <si>
+    <t>unique, not null</t>
+  </si>
+  <si>
+    <t>barcode_id(идентификатор издания)</t>
+  </si>
+  <si>
+    <t>FK для связи с barcode - штрихкод, not null</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2150,7 +2150,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>57</v>
@@ -2168,7 +2168,7 @@
         <v>61</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2194,7 +2194,7 @@
         <v>71</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2289,7 +2289,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>62</v>
@@ -2374,9 +2374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2538,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,6 +2702,9 @@
       <c r="C23" t="s">
         <v>81</v>
       </c>
+      <c r="D23" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2760,9 +2763,6 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2774,9 +2774,6 @@
       <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="D29" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2788,9 +2785,6 @@
       <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2813,22 +2807,19 @@
       <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="D32" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
       <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
         <v>177</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2836,21 +2827,21 @@
         <v>169</v>
       </c>
       <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
         <v>179</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
         <v>79</v>
@@ -2861,38 +2852,38 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" t="s">
-        <v>184</v>
-      </c>
       <c r="C36" t="s">
         <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
@@ -2903,38 +2894,38 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
         <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
         <v>79</v>
@@ -2945,94 +2936,94 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" t="s">
         <v>188</v>
-      </c>
-      <c r="B42" t="s">
-        <v>190</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
         <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
         <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s">
         <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
         <v>79</v>
@@ -3043,7 +3034,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
         <v>147</v>
@@ -3052,25 +3043,25 @@
         <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
         <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pw3/pw3-Приведение таблиц(edited).xlsx
+++ b/pw3/pw3-Приведение таблиц(edited).xlsx
@@ -473,9 +473,6 @@
     <t>FK для связи с repository - издание</t>
   </si>
   <si>
-    <t>AK, unique, not null, CHECK (должен удовлетворять шаблону '000-000-000-000'</t>
-  </si>
-  <si>
     <t>binding_id (вид переплета)</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t xml:space="preserve"> AK, unique, not null, CHECK (жесткий, мягкий)</t>
   </si>
   <si>
-    <t>AK, unique, not null, CHECK (только буквы и пробелы)</t>
-  </si>
-  <si>
     <t>AK/2, CHECK (4 цифры)</t>
   </si>
   <si>
@@ -666,13 +660,45 @@
   </si>
   <si>
     <t>FK для связи с barcode - штрихкод, not null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AK, unique, not null, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHECK (должен удовлетворять шаблону '000-000-000-000'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AK, unique, not null, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHECK (только буквы и пробелы)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,8 +744,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,6 +818,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2150,7 +2200,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>57</v>
@@ -2168,7 +2218,7 @@
         <v>61</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2194,7 +2244,7 @@
         <v>71</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2289,7 +2339,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>62</v>
@@ -2375,8 +2425,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,13 +2455,13 @@
       <c r="A2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2419,13 +2469,13 @@
       <c r="A3" t="s">
         <v>131</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2433,13 +2483,13 @@
       <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2447,41 +2497,41 @@
       <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>149</v>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2489,13 +2539,13 @@
       <c r="A8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2503,55 +2553,55 @@
       <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
-        <v>204</v>
+      <c r="D11" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2559,13 +2609,13 @@
       <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2573,24 +2623,25 @@
       <c r="A14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2598,13 +2649,13 @@
       <c r="A16" t="s">
         <v>144</v>
       </c>
-      <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2612,452 +2663,460 @@
       <c r="A17" t="s">
         <v>144</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>205</v>
+      <c r="D21" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D23" t="s">
-        <v>211</v>
+      <c r="D23" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
+      <c r="C32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D39" t="s">
-        <v>208</v>
+      <c r="D39" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" t="s">
         <v>183</v>
       </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>207</v>
+      <c r="B40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D42" t="s">
-        <v>197</v>
+      <c r="D42" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D43" t="s">
-        <v>198</v>
+      <c r="D43" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D44" t="s">
-        <v>193</v>
+      <c r="D44" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
-        <v>196</v>
+      <c r="D45" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" t="s">
-        <v>213</v>
+        <v>185</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>200</v>
+      <c r="C49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D50" t="s">
-        <v>201</v>
+      <c r="D50" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
